--- a/natmiOut/OldD0/LR-pairs_lrc2p/Cdh1-Egfr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Cdh1-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Egfr</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.933458721154062</v>
+        <v>0.5650276666666666</v>
       </c>
       <c r="H2">
-        <v>0.933458721154062</v>
+        <v>1.695083</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.3735116729352592</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.3735116729352592</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.65048987099411</v>
+        <v>2.08532</v>
       </c>
       <c r="N2">
-        <v>1.65048987099411</v>
+        <v>6.25596</v>
       </c>
       <c r="O2">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136817</v>
       </c>
       <c r="P2">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136816</v>
       </c>
       <c r="Q2">
-        <v>1.540664164255895</v>
+        <v>1.178263493853333</v>
       </c>
       <c r="R2">
-        <v>1.540664164255895</v>
+        <v>10.60437144468</v>
       </c>
       <c r="S2">
-        <v>0.01395299254402353</v>
+        <v>0.006550543794561724</v>
       </c>
       <c r="T2">
-        <v>0.01395299254402353</v>
+        <v>0.006550543794561723</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -593,49 +593,49 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.933458721154062</v>
+        <v>0.5650276666666666</v>
       </c>
       <c r="H3">
-        <v>0.933458721154062</v>
+        <v>1.695083</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.3735116729352592</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.3735116729352592</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.883843718528</v>
+        <v>101.898173</v>
       </c>
       <c r="N3">
-        <v>101.883843718528</v>
+        <v>305.694519</v>
       </c>
       <c r="O3">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756384</v>
       </c>
       <c r="P3">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756383</v>
       </c>
       <c r="Q3">
-        <v>95.10436246375747</v>
+        <v>57.57528692778632</v>
       </c>
       <c r="R3">
-        <v>95.10436246375747</v>
+        <v>518.177582350077</v>
       </c>
       <c r="S3">
-        <v>0.8613106549420034</v>
+        <v>0.3200892164379218</v>
       </c>
       <c r="T3">
-        <v>0.8613106549420034</v>
+        <v>0.3200892164379217</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,247 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.5650276666666666</v>
+      </c>
+      <c r="H4">
+        <v>1.695083</v>
+      </c>
+      <c r="I4">
+        <v>0.3735116729352592</v>
+      </c>
+      <c r="J4">
+        <v>0.3735116729352592</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>14.921347</v>
+      </c>
+      <c r="N4">
+        <v>44.76404100000001</v>
+      </c>
+      <c r="O4">
+        <v>0.1254898202629935</v>
+      </c>
+      <c r="P4">
+        <v>0.1254898202629935</v>
+      </c>
+      <c r="Q4">
+        <v>8.430973878933667</v>
+      </c>
+      <c r="R4">
+        <v>75.87876491040301</v>
+      </c>
+      <c r="S4">
+        <v>0.04687191270277569</v>
+      </c>
+      <c r="T4">
+        <v>0.04687191270277568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.933458721154062</v>
-      </c>
-      <c r="H4">
-        <v>0.933458721154062</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>14.7549771648983</v>
-      </c>
-      <c r="N4">
-        <v>14.7549771648983</v>
-      </c>
-      <c r="O4">
-        <v>0.1247363525139732</v>
-      </c>
-      <c r="P4">
-        <v>0.1247363525139732</v>
-      </c>
-      <c r="Q4">
-        <v>13.77316211500336</v>
-      </c>
-      <c r="R4">
-        <v>13.77316211500336</v>
-      </c>
-      <c r="S4">
-        <v>0.1247363525139732</v>
-      </c>
-      <c r="T4">
-        <v>0.1247363525139732</v>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.9477166666666665</v>
+      </c>
+      <c r="H5">
+        <v>2.84315</v>
+      </c>
+      <c r="I5">
+        <v>0.6264883270647409</v>
+      </c>
+      <c r="J5">
+        <v>0.6264883270647408</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>2.08532</v>
+      </c>
+      <c r="N5">
+        <v>6.25596</v>
+      </c>
+      <c r="O5">
+        <v>0.01753772176136817</v>
+      </c>
+      <c r="P5">
+        <v>0.01753772176136816</v>
+      </c>
+      <c r="Q5">
+        <v>1.976292519333333</v>
+      </c>
+      <c r="R5">
+        <v>17.786632674</v>
+      </c>
+      <c r="S5">
+        <v>0.01098717796680644</v>
+      </c>
+      <c r="T5">
+        <v>0.01098717796680644</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.9477166666666665</v>
+      </c>
+      <c r="H6">
+        <v>2.84315</v>
+      </c>
+      <c r="I6">
+        <v>0.6264883270647409</v>
+      </c>
+      <c r="J6">
+        <v>0.6264883270647408</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>101.898173</v>
+      </c>
+      <c r="N6">
+        <v>305.694519</v>
+      </c>
+      <c r="O6">
+        <v>0.8569724579756384</v>
+      </c>
+      <c r="P6">
+        <v>0.8569724579756383</v>
+      </c>
+      <c r="Q6">
+        <v>96.57059685498332</v>
+      </c>
+      <c r="R6">
+        <v>869.1353716948499</v>
+      </c>
+      <c r="S6">
+        <v>0.5368832415377166</v>
+      </c>
+      <c r="T6">
+        <v>0.5368832415377165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.9477166666666665</v>
+      </c>
+      <c r="H7">
+        <v>2.84315</v>
+      </c>
+      <c r="I7">
+        <v>0.6264883270647409</v>
+      </c>
+      <c r="J7">
+        <v>0.6264883270647408</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>14.921347</v>
+      </c>
+      <c r="N7">
+        <v>44.76404100000001</v>
+      </c>
+      <c r="O7">
+        <v>0.1254898202629935</v>
+      </c>
+      <c r="P7">
+        <v>0.1254898202629935</v>
+      </c>
+      <c r="Q7">
+        <v>14.14120924101667</v>
+      </c>
+      <c r="R7">
+        <v>127.27088316915</v>
+      </c>
+      <c r="S7">
+        <v>0.07861790756021783</v>
+      </c>
+      <c r="T7">
+        <v>0.0786179075602178</v>
       </c>
     </row>
   </sheetData>
